--- a/P4_CreateReportDB/customer_by_ship_country.xlsx
+++ b/P4_CreateReportDB/customer_by_ship_country.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\become-business-analyst\P4_CreateReportDB\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{5A36354D-331A-4B75-90D6-F6137474B4EA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="customer_by_ship_country" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -115,8 +109,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -708,24 +702,24 @@
     </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
@@ -740,15 +734,15 @@
     <cellStyle name="解释性文本" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="输出" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="着色 1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="着色 2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="着色 3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="着色 4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="着色 5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -765,94 +759,49 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
         <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="95000"/>
-                  </a:schemeClr>
-                </a:solidFill>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="zh-CN" sz="1800" b="1" i="0" baseline="0">
                 <a:effectLst>
-                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:outerShdw blurRad="50800" dist="38100" algn="tr" rotWithShape="0">
                     <a:prstClr val="black">
                       <a:alpha val="40000"/>
                     </a:prstClr>
                   </a:outerShdw>
                 </a:effectLst>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="zh-CN"/>
+              </a:rPr>
               <a:t>货运国家数量</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
+            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1800" b="1" i="0" baseline="0">
               <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                <a:outerShdw blurRad="50800" dist="38100" algn="tr" rotWithShape="0">
                   <a:prstClr val="black">
                     <a:alpha val="40000"/>
                   </a:prstClr>
                 </a:outerShdw>
               </a:effectLst>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="bar"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -867,45 +816,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent1">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent1">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>customer_by_ship_country!$A$2:$A$29</c:f>
@@ -1091,178 +1001,44 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-BEF2-4EA4-9981-59E63AB244E9}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
+          <c:showVal val="1"/>
         </c:dLbls>
-        <c:gapWidth val="115"/>
-        <c:overlap val="-20"/>
-        <c:axId val="753498592"/>
-        <c:axId val="753499248"/>
+        <c:overlap val="-25"/>
+        <c:axId val="135814144"/>
+        <c:axId val="136040448"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="753498592"/>
+        <c:axId val="135814144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="lt1">
-                <a:lumMod val="95000"/>
-                <a:alpha val="54000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="753499248"/>
+        <c:crossAx val="136040448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="753499248"/>
+        <c:axId val="136040448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
-                  <a:alpha val="10000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="753498592"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="135814144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
-  <c:spPr>
-    <a:gradFill flip="none" rotWithShape="1">
-      <a:gsLst>
-        <a:gs pos="0">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:gs>
-        <a:gs pos="100000">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="85000"/>
-            <a:lumOff val="15000"/>
-          </a:schemeClr>
-        </a:gs>
-      </a:gsLst>
-      <a:path path="circle">
-        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-      </a:path>
-      <a:tileRect/>
-    </a:gradFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
-    </a:p>
-  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -1271,566 +1047,24 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="222">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:gradFill flip="none" rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="65000"/>
-              <a:lumOff val="35000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="85000"/>
-              <a:lumOff val="15000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:path path="circle">
-          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-        </a:path>
-        <a:tileRect/>
-      </a:gradFill>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="34925" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="10000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="5000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="95000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
-      <a:effectLst>
-        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="40000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
-    </cs:defRPr>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="图表 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1613BF6-5A8F-4F8E-996C-F9F2C1FC1CED}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="4" name="图表 3"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1891,7 +1125,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1943,7 +1177,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -2137,23 +1371,23 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V14" sqref="V14"/>
+      <selection sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2161,7 +1395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2169,7 +1403,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2177,7 +1411,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2185,7 +1419,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -2193,7 +1427,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -2201,7 +1435,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -2209,7 +1443,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -2217,7 +1451,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -2225,7 +1459,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -2233,7 +1467,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -2241,7 +1475,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -2249,7 +1483,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -2257,7 +1491,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -2265,7 +1499,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -2273,7 +1507,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -2281,7 +1515,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -2289,7 +1523,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -2297,7 +1531,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -2305,7 +1539,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -2313,7 +1547,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -2321,7 +1555,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -2329,7 +1563,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -2337,7 +1571,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -2345,7 +1579,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -2353,7 +1587,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -2361,7 +1595,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -2369,7 +1603,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -2377,7 +1611,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
         <v>29</v>
       </c>
